--- a/tablas.xlsx
+++ b/tablas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saddy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01BBDDA1-7EB2-44BB-9DCD-8D73089F4ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F70DB5D-B180-4632-ACAC-BDBAE2AEE3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E5B98EC2-EB18-47A5-9930-C6E8D8C4A32F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
   <si>
     <t>Operación</t>
   </si>
@@ -52,30 +52,16 @@
   <si>
     <t>quick</t>
   </si>
-  <si>
-    <t>0.0012232065200805664</t>
-  </si>
-  <si>
-    <t>0.0024749279022216798</t>
-  </si>
-  <si>
-    <t>0.0035158395767211914</t>
-  </si>
-  <si>
-    <t>0.005150389671325683</t>
-  </si>
-  <si>
-    <t>0.006429648399353028</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.00000000000000"/>
     <numFmt numFmtId="165" formatCode="0.0000000000000000"/>
     <numFmt numFmtId="166" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -106,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -123,6 +109,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,7 +604,366 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$C$10:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$10:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000000000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.2232065200805599E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4749279022216698E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5158395767211901E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.15038967132568E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4296483993530199E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C292-450B-BA32-7169D0916EC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="199896799"/>
+        <c:axId val="199900159"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="199896799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199900159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="199900159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000000000000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199896799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1171,6 +1519,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1204,6 +2068,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5C9239-91D6-E5D0-A4B4-4CED7648A371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1532,12 +2432,12 @@
   <dimension ref="B3:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C10" sqref="C10:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1607,49 +2507,49 @@
         <v>1.02770934104919</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1">
         <v>1000</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
+      <c r="D10" s="8">
+        <v>1.2232065200805599E-3</v>
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="1">
         <v>2000</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
+      <c r="D11" s="8">
+        <v>2.4749279022216698E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1">
         <v>3000</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
+      <c r="D12" s="8">
+        <v>3.5158395767211901E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1">
         <v>4000</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
+      <c r="D13" s="8">
+        <v>5.15038967132568E-3</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -1659,8 +2559,8 @@
       <c r="C14" s="1">
         <v>5000</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
+      <c r="D14" s="8">
+        <v>6.4296483993530199E-3</v>
       </c>
     </row>
     <row r="17" spans="5:9" x14ac:dyDescent="0.25">
